--- a/biology/Botanique/Arenaria_norvegica/Arenaria_norvegica.xlsx
+++ b/biology/Botanique/Arenaria_norvegica/Arenaria_norvegica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arenaria norvegica, également connue sous le nom de sabline arctique, anglaise ou de Norvège, est une plante à croissance basse de la famille des Caryophyllaceae qui se trouve au nord-ouest de l'Europe. Il existe deux sous-espèces reconnues. 
 </t>
@@ -511,13 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arenaria norvegica est une plante très ramifiée, à croissance basse, pouvant atteindre six centimètres de haut. 
-Arenaria norvegica subsp. anglica
-Arenaria norvegica subsp. anglica est une plante herbacée annuelle ou bisannuelle avec peu de pousses non fleuries. Les fleurs mesurent onze à vingt-trois millimètres de diamètre. La plante fleurit de mai à octobre. 
-Arenaria norvegica subsp. norvegica
-Arenaria norvegica subsp. norvegica est une plante herbacée vivace avec de nombreuses pousses non fleuries. 
 </t>
         </is>
       </c>
@@ -543,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les deux sous-espèces sont rares et localisées.
-Arenaria norvegica subsp. anglica est limité aux régions calcaires des Yorkshire Dales au Royaume-Uni.
-Arenaria norvegica subsp. norvegica se trouve à l'ouest et au nord-ouest de l' Écosse, dans les îles Shetland, à l'ouest de l' Irlande, en Scandinavie [3] et en Islande[4],[5] .
+          <t>Arenaria norvegica subsp. anglica</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arenaria norvegica subsp. anglica est une plante herbacée annuelle ou bisannuelle avec peu de pousses non fleuries. Les fleurs mesurent onze à vingt-trois millimètres de diamètre. La plante fleurit de mai à octobre. 
 </t>
         </is>
       </c>
@@ -576,15 +590,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arenaria norvegica subsp. norvegica</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arenaria norvegica subsp. norvegica est une plante herbacée vivace avec de nombreuses pousses non fleuries. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arenaria_norvegica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arenaria_norvegica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux sous-espèces sont rares et localisées.
+Arenaria norvegica subsp. anglica est limité aux régions calcaires des Yorkshire Dales au Royaume-Uni.
+Arenaria norvegica subsp. norvegica se trouve à l'ouest et au nord-ouest de l' Écosse, dans les îles Shetland, à l'ouest de l' Irlande, en Scandinavie  et en Islande, .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arenaria_norvegica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arenaria_norvegica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 novembre 2020)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 novembre 2020) :
 sous-espèce Arenaria norvegica subsp. anglica
 sous-espèce Arenaria norvegica subsp. norvegica
-Selon Tropicos                                           (15 novembre 2020)[7] :
+Selon Tropicos                                           (15 novembre 2020) :
 sous-espèce Arenaria norvegica subsp. anglica Holliday</t>
         </is>
       </c>
